--- a/data/XRP/XRP20150701.xlsx
+++ b/data/XRP/XRP20150701.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
